--- a/shipClassTests/testResults/system_test.xlsx
+++ b/shipClassTests/testResults/system_test.xlsx
@@ -7,22 +7,40 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="System History" sheetId="1" r:id="rId1"/>
-    <sheet name="Sensed Component 1 History" sheetId="2" r:id="rId2"/>
-    <sheet name="Sensed Component 2 History" sheetId="3" r:id="rId3"/>
-    <sheet name="Sensed Component 3 History" sheetId="4" r:id="rId4"/>
+    <sheet name="System" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensed Component 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sensed Component 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sensed Component 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Time Step</t>
   </si>
   <si>
+    <t>Component 1 Truth</t>
+  </si>
+  <si>
+    <t>Component 2 Truth</t>
+  </si>
+  <si>
+    <t>Component 3 Truth</t>
+  </si>
+  <si>
     <t>System True State</t>
+  </si>
+  <si>
+    <t>Component 1 Sensed</t>
+  </si>
+  <si>
+    <t>Component 2 Sensed</t>
+  </si>
+  <si>
+    <t>Component 3 Sensed</t>
   </si>
   <si>
     <t>System Sensed State</t>
@@ -41,6 +59,12 @@
   </si>
   <si>
     <t>Sensed State</t>
+  </si>
+  <si>
+    <t>Are Sensors Working?</t>
+  </si>
+  <si>
+    <t>Did Sensed State Match Truth State?</t>
   </si>
 </sst>
 </file>
@@ -76,8 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,24 +399,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -399,151 +447,412 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>IF(E2 = I2, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>IF(E3 = I3, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>IF(E4 = I4, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>IF(E5 = I5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>IF(E6 = I6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>IF(E7 = I7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>IF(E8 = I8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>IF(E9 = I9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>IF(E10 = I10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>IF(E11 = I11, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>IF(E12 = I12, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -562,8 +871,16 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>MODE(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(B2=F2, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -571,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -582,8 +899,16 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f>MODE(C3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(B3=F3, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -602,8 +927,16 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f>MODE(C4:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(B4=F4, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -622,8 +955,16 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f>MODE(C5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IF(B5=F5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -642,8 +983,16 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IF(B6=F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -662,8 +1011,16 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>IF(B7=F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -682,8 +1039,16 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IF(B8=F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -702,8 +1067,16 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>IF(B9=F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -722,8 +1095,16 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>IF(B10=F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -742,8 +1123,16 @@
       <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f>MODE(C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IF(B11=F11, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -762,41 +1151,78 @@
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12">
+        <f>MODE(C12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>IF(B12=F12, 1, 0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -815,13 +1241,21 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>MODE(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(B2=F2, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -830,18 +1264,26 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f>MODE(C3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(B3=F3, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -850,13 +1292,21 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f>MODE(C4:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(B4=F4, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -870,13 +1320,21 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f>MODE(C5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IF(B5=F5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -895,8 +1353,16 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IF(B6=F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -915,8 +1381,16 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>IF(B7=F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -935,8 +1409,16 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IF(B8=F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -955,8 +1437,16 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>IF(B9=F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -975,8 +1465,16 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>IF(B10=F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -995,8 +1493,16 @@
       <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f>MODE(C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IF(B11=F11, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1015,41 +1521,78 @@
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12">
+        <f>MODE(C12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>IF(B12=F12, 1, 0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1068,33 +1611,49 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>MODE(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(B2=F2, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>MODE(C3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(B3=F3, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1106,15 +1665,23 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>MODE(C4:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(B4=F4, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1126,10 +1693,18 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>MODE(C5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IF(B5=F5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1146,10 +1721,18 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>MODE(C6:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IF(B6=F6, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1166,10 +1749,18 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>IF(B7=F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1186,10 +1777,18 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IF(B8=F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1206,10 +1805,18 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>IF(B9=F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1226,10 +1833,18 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>IF(B10=F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1246,10 +1861,18 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>MODE(C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IF(B11=F11, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1266,10 +1889,38 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>MODE(C12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>IF(B12=F12, 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>